--- a/biology/Médecine/Péricoronarite/Péricoronarite.xlsx
+++ b/biology/Médecine/Péricoronarite/Péricoronarite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9ricoronarite</t>
+          <t>Péricoronarite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une péricoronarite est une inflammation de la gencive qui recouvre la couronne d'une dent partiellement sortie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9ricoronarite</t>
+          <t>Péricoronarite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pathologie, plus fréquente en fin d'adolescence ou début de l'âge adulte, survient généralement au niveau des dents de sagesse ou sur la dernière série de molaires lorsqu'un capuchon muqueux non attaché recouvre encore partiellement la couronne de la dent. Les bactéries, en s'infiltrant sous ce capuchon muqueux, provoquent une infection et une inflammation du tissu entourant la dent. Cette infection peut se transmettre aux tissus mous avoisinant et induire des symptômes secondaires tel gonflement (œdème) au niveau du cou, trismus, mauvaise haleine (halitose), fièvre, etc.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9ricoronarite</t>
+          <t>Péricoronarite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes se caractérisent par une inflammation qui provoque douleur, rougeur et gonflement de la gencive, un « mauvais goût » dans la bouche (causés par les bactéries le plus souvent anaérobie se développant sous la gencive), un gonflement des ganglions lymphatiques dans le cou, et une difficulté à ouvrir la bouche (trismus) lié à une inflammation du muscle masséter tout proche.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9ricoronarite</t>
+          <t>Péricoronarite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la péricoronarite est limitée à la dent avec une inflammation marginale, le traitement consiste à réaliser des bains de bouche avec de l'eau tiède salée.
 Si la dent et la mâchoire ou les joues sont gonflées et douloureuses, la prescription d'antibiotiques (habituellement la pénicilline, sauf en cas d'allergie) et d'anti-inflammatoire sera préconisée.
